--- a/vision_work/Depth_measurements.xlsx
+++ b/vision_work/Depth_measurements.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -221,11 +221,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -241,6 +242,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -285,12 +296,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -303,7 +318,453 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Compare</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.476361434318093"/>
+          <c:y val="0.0661493546404425"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$19:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.379</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.073</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$19:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3866</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0852</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="72162400"/>
+        <c:axId val="40624475"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="72162400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40624475"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40624475"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72162400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>445320</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>244440</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>75960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4397040" y="1730520"/>
+        <a:ext cx="8322480" cy="4685400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -311,23 +772,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:I27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
@@ -862,5 +1331,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>